--- a/2021/data/cryptic_pocket_apo.xlsx
+++ b/2021/data/cryptic_pocket_apo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkumada/Documents/class/2021/work/research/2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB99DDFD-44B6-BA48-90A8-1E6964623E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A368BD1-64C5-5649-9715-B85FC0F77A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BF094E97-5A57-DA4C-8161-3E6398E8ED91}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{BF094E97-5A57-DA4C-8161-3E6398E8ED91}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_apo_train" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="crypt apo test" sheetId="5" r:id="rId6"/>
     <sheet name="crypt fpocket apo test" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -15472,7 +15472,7 @@
   </sheetPr>
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/2021/data/cryptic_pocket_apo.xlsx
+++ b/2021/data/cryptic_pocket_apo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkumada/Documents/class/2021/work/research/2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B027DCDD-3103-1443-938F-4F11B4AEE38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8D649DF3-7076-5F43-AC5C-085F50C34F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{BF094E97-5A57-DA4C-8161-3E6398E8ED91}"/>
+    <workbookView xWindow="2200" yWindow="860" windowWidth="28800" windowHeight="16520" xr2:uid="{BF094E97-5A57-DA4C-8161-3E6398E8ED91}"/>
   </bookViews>
   <sheets>
     <sheet name="cryptic_pocket_apo_train" sheetId="6" r:id="rId1"/>
@@ -16918,7 +16918,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" sqref="A1:V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
